--- a/TransportesCMD/Presentacion/SQL y Recursos/Reglas del Negocio.xlsx
+++ b/TransportesCMD/Presentacion/SQL y Recursos/Reglas del Negocio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="219">
   <si>
     <t>Procedimiento</t>
   </si>
@@ -54,12 +54,6 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>Error al Registrar Itinerario</t>
-  </si>
-  <si>
-    <t>¡Registro de Itinerario Correcto!</t>
-  </si>
-  <si>
     <t>Los buses solamente puden asignarse a un Itinerario en diferente ruta, fecha y hora de salida.</t>
   </si>
   <si>
@@ -670,6 +664,15 @@
   </si>
   <si>
     <t>RN-0100</t>
+  </si>
+  <si>
+    <t>¡Registro Correcto!</t>
+  </si>
+  <si>
+    <t>Error al Registrar</t>
+  </si>
+  <si>
+    <t>No se puede registrar a otra persona que su Número de Documento de Identidad ya esté en la base de datos.</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,6 +885,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,7 +1190,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1210,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1214,597 +1218,599 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B101" s="4"/>
     </row>
@@ -1876,14 +1882,14 @@
         <v>5</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>IF(F3="SI",VLOOKUP(D3,'Reglas del Negocio'!$A$1:$B$101,2,FALSE),VLOOKUP(D3,Mensajes!$A$1:$B$102,2,FALSE))</f>
-        <v>¡Registro de Itinerario Correcto!</v>
+        <v>¡Registro Correcto!</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -1892,14 +1898,14 @@
       <c r="B4" s="19"/>
       <c r="C4" s="21"/>
       <c r="D4" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>IF(F4="SI",VLOOKUP(D4,'Reglas del Negocio'!$A$1:$B$101,2,FALSE),VLOOKUP(D4,Mensajes!$A$1:$B$102,2,FALSE))</f>
         <v>No debe haber Itinerarios con las misma ruta, fecha y hora de salida. Por lo menos debe diferenciarse en lo último.</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3278,7 +3284,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,517 +3302,518 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>